--- a/data/trans_orig/P6602-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE45524-E9ED-42DF-ADBA-ECAF27C889F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A43869-89DC-44F8-92A0-27262EDE3EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00F934EA-0D8B-4DC3-B82D-43F74AA68EF1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEDDE0F0-41E4-46BF-9FA0-6AE28A8E1126}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="893">
   <si>
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2007 (Tasa respuesta: 43,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,57%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>72,72%</t>
   </si>
   <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
   </si>
   <si>
     <t>51,06%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>22,51%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,28 +137,28 @@
     <t>32,05%</t>
   </si>
   <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,10 +167,10 @@
     <t>11,87%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>2,48%</t>
@@ -179,16 +179,16 @@
     <t>0,61%</t>
   </si>
   <si>
-    <t>5,95%</t>
+    <t>5,9%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,2442 +197,2490 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
   </si>
   <si>
     <t>79,5%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>58,26%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>49,23%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>28,49%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
     <t>15,52%</t>
   </si>
   <si>
@@ -2651,9 +2699,6 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
     <t>11,15%</t>
   </si>
   <si>
@@ -2673,9 +2718,6 @@
   </si>
   <si>
     <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
   </si>
 </sst>
 </file>
@@ -3087,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C805875-852E-4DC5-961E-7F0F7D8A22F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAED0D3-61B3-4759-9B78-28175CF88977}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3468,13 +3510,13 @@
         <v>251327</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>257</v>
@@ -3483,13 +3525,13 @@
         <v>271481</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>496</v>
@@ -3498,13 +3540,13 @@
         <v>522808</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3561,13 @@
         <v>132917</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3534,13 +3576,13 @@
         <v>45696</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -3549,13 +3591,13 @@
         <v>178613</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3612,13 @@
         <v>129709</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -3585,13 +3627,13 @@
         <v>13852</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -3600,13 +3642,13 @@
         <v>143561</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3663,13 @@
         <v>41885</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3636,13 +3678,13 @@
         <v>10448</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -3651,13 +3693,13 @@
         <v>52333</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3755,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3725,13 +3767,13 @@
         <v>270781</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -3740,13 +3782,13 @@
         <v>211294</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -3755,13 +3797,13 @@
         <v>482076</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3818,13 @@
         <v>117504</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -3791,13 +3833,13 @@
         <v>55561</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>166</v>
@@ -3806,13 +3848,13 @@
         <v>173065</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3869,13 @@
         <v>131891</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3842,13 +3884,13 @@
         <v>26115</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -3857,13 +3899,13 @@
         <v>158005</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3920,13 @@
         <v>47437</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3893,13 +3935,13 @@
         <v>11577</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -3908,13 +3950,13 @@
         <v>59014</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,7 +4012,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3982,7 +4024,7 @@
         <v>188811</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>126</v>
@@ -4308,10 +4350,10 @@
         <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -4323,10 +4365,10 @@
         <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4383,13 @@
         <v>44505</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4356,13 +4398,13 @@
         <v>5917</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -4371,13 +4413,13 @@
         <v>50421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4434,13 @@
         <v>19121</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -4407,13 +4449,13 @@
         <v>3004</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>23</v>
@@ -4422,13 +4464,13 @@
         <v>22125</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4526,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4496,13 +4538,13 @@
         <v>3232</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4511,13 +4553,13 @@
         <v>2825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4526,13 +4568,13 @@
         <v>6058</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4562,13 +4604,13 @@
         <v>796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -4577,13 +4619,13 @@
         <v>796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4640,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4613,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -4628,13 +4670,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4691,13 @@
         <v>831</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4664,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4679,13 +4721,13 @@
         <v>831</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4795,13 @@
         <v>841776</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>718</v>
@@ -4768,13 +4810,13 @@
         <v>746854</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>1528</v>
@@ -4783,13 +4825,13 @@
         <v>1588630</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4846,13 @@
         <v>408505</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H35" s="7">
         <v>160</v>
@@ -4819,13 +4861,13 @@
         <v>172372</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M35" s="7">
         <v>548</v>
@@ -4834,13 +4876,13 @@
         <v>580877</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4897,13 @@
         <v>494022</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>67</v>
@@ -4870,13 +4912,13 @@
         <v>68301</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>536</v>
@@ -4885,13 +4927,13 @@
         <v>562323</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4948,13 @@
         <v>161384</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -4921,13 +4963,13 @@
         <v>38711</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="M37" s="7">
         <v>195</v>
@@ -4936,13 +4978,13 @@
         <v>200095</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,7 +5040,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC0120D-F2E9-46D4-8804-DA372DF88D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C44C6FA-4769-4171-BE13-5FE5576918FE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5037,7 +5079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5144,13 +5186,13 @@
         <v>20990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -5159,13 +5201,13 @@
         <v>56072</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -5174,13 +5216,13 @@
         <v>77062</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5237,13 @@
         <v>23347</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5210,13 +5252,13 @@
         <v>19984</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -5225,13 +5267,13 @@
         <v>43332</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5288,13 @@
         <v>21020</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5261,13 +5303,13 @@
         <v>6533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -5276,13 +5318,13 @@
         <v>27553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5339,13 @@
         <v>17494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5312,7 +5354,7 @@
         <v>5211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>285</v>
@@ -5327,13 +5369,13 @@
         <v>22705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5443,13 @@
         <v>135350</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H9" s="7">
         <v>161</v>
@@ -5416,13 +5458,13 @@
         <v>170988</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>289</v>
@@ -5431,13 +5473,13 @@
         <v>306337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5494,13 @@
         <v>103421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5467,13 +5509,13 @@
         <v>66621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5482,13 +5524,13 @@
         <v>170041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5545,13 @@
         <v>87241</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -5518,13 +5560,13 @@
         <v>22005</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>106</v>
@@ -5533,13 +5575,13 @@
         <v>109246</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5596,13 @@
         <v>56707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -5569,13 +5611,13 @@
         <v>16330</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -5584,13 +5626,13 @@
         <v>73038</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5688,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5658,13 +5700,13 @@
         <v>151659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5688,7 +5730,7 @@
         <v>329324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>330</v>
@@ -5829,10 +5871,10 @@
         <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -5841,10 +5883,10 @@
         <v>77916</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>357</v>
@@ -5903,7 +5945,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5984,10 +6026,10 @@
         <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5996,10 +6038,10 @@
         <v>151940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>374</v>
@@ -6047,13 +6089,13 @@
         <v>79272</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,10 +6113,10 @@
         <v>383</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -6083,13 +6125,13 @@
         <v>16045</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6098,10 +6140,10 @@
         <v>72168</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>390</v>
@@ -6190,10 +6232,10 @@
         <v>394</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>90</v>
+        <v>395</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -6202,13 +6244,13 @@
         <v>104329</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6265,13 @@
         <v>38117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>242</v>
+        <v>401</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -6238,13 +6280,13 @@
         <v>17588</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -6253,13 +6295,13 @@
         <v>55704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6316,13 @@
         <v>34148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6289,13 +6331,13 @@
         <v>4277</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6304,13 +6346,13 @@
         <v>38425</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6367,13 @@
         <v>19956</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>418</v>
+        <v>235</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -6340,13 +6382,13 @@
         <v>8628</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -6417,7 +6459,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6432,10 +6474,10 @@
         <v>425</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6444,7 +6486,7 @@
         <v>2838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>426</v>
@@ -6465,7 +6507,7 @@
         <v>428</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,10 +6525,10 @@
         <v>429</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6495,10 +6537,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>430</v>
@@ -6513,7 +6555,7 @@
         <v>431</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>432</v>
@@ -6534,10 +6576,10 @@
         <v>429</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6546,10 +6588,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>430</v>
@@ -6564,10 +6606,10 @@
         <v>431</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>430</v>
@@ -6597,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>430</v>
@@ -6612,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6728,13 @@
         <v>515098</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H34" s="7">
         <v>547</v>
@@ -6701,13 +6743,13 @@
         <v>593363</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M34" s="7">
         <v>1020</v>
@@ -6716,13 +6758,13 @@
         <v>1108460</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,10 +6779,10 @@
         <v>382813</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>444</v>
+        <v>177</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>445</v>
@@ -6791,10 +6833,10 @@
         <v>452</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>453</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="H36" s="7">
         <v>58</v>
@@ -6809,7 +6851,7 @@
         <v>455</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="M36" s="7">
         <v>352</v>
@@ -6818,13 +6860,13 @@
         <v>373029</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>99</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6881,13 @@
         <v>206672</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -6854,13 +6896,13 @@
         <v>67739</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M37" s="7">
         <v>256</v>
@@ -6869,13 +6911,13 @@
         <v>274410</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,7 +6973,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6953,7 +6995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6C02FB-2E0F-432A-993E-5E074C525C3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D5005B-E86C-4361-9569-C965E6828C6B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6970,7 +7012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7077,13 +7119,13 @@
         <v>27936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -7092,13 +7134,13 @@
         <v>37481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -7107,13 +7149,13 @@
         <v>65417</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7170,13 @@
         <v>20451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -7143,13 +7185,13 @@
         <v>30717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -7158,10 +7200,10 @@
         <v>51167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>484</v>
@@ -7197,10 +7239,10 @@
         <v>488</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -7209,13 +7251,13 @@
         <v>26925</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7272,13 @@
         <v>17330</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -7245,13 +7287,13 @@
         <v>10124</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -7260,13 +7302,13 @@
         <v>27455</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7376,13 @@
         <v>93319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>503</v>
+        <v>71</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -7349,13 +7391,13 @@
         <v>153255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M9" s="7">
         <v>251</v>
@@ -7364,13 +7406,13 @@
         <v>246574</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7427,13 @@
         <v>102178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -7400,13 +7442,13 @@
         <v>58937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>159</v>
@@ -7415,13 +7457,13 @@
         <v>161115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7478,13 @@
         <v>78128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -7451,13 +7493,13 @@
         <v>41820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -7466,13 +7508,13 @@
         <v>119948</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7529,13 @@
         <v>69602</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -7502,13 +7544,13 @@
         <v>17798</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -7517,13 +7559,13 @@
         <v>87400</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>534</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,7 +7621,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7591,13 +7633,13 @@
         <v>151309</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -7606,13 +7648,13 @@
         <v>177626</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
@@ -7621,13 +7663,13 @@
         <v>328935</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7684,13 @@
         <v>134023</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -7657,13 +7699,13 @@
         <v>82047</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>476</v>
+        <v>172</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M15" s="7">
         <v>210</v>
@@ -7672,10 +7714,10 @@
         <v>216071</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>549</v>
@@ -7723,13 +7765,13 @@
         <v>126654</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7786,13 @@
         <v>74850</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -7759,13 +7801,13 @@
         <v>27981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7774,13 +7816,13 @@
         <v>102831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,7 +7878,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7848,13 +7890,13 @@
         <v>129355</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -7863,13 +7905,13 @@
         <v>129660</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M19" s="7">
         <v>237</v>
@@ -7878,13 +7920,13 @@
         <v>259015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>572</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,13 +7941,13 @@
         <v>89745</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -7914,13 +7956,13 @@
         <v>61623</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -7929,13 +7971,13 @@
         <v>151368</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7992,13 @@
         <v>81821</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -7965,13 +8007,13 @@
         <v>26649</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -7980,13 +8022,13 @@
         <v>108470</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +8043,13 @@
         <v>62663</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>593</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -8016,13 +8058,13 @@
         <v>24189</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -8031,13 +8073,13 @@
         <v>86852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>598</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,7 +8255,7 @@
         <v>618</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>468</v>
+        <v>619</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -8222,13 +8264,13 @@
         <v>13748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -8237,13 +8279,13 @@
         <v>42304</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>624</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8300,13 @@
         <v>22150</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>625</v>
+        <v>522</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -8273,13 +8315,13 @@
         <v>7849</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -8288,13 +8330,13 @@
         <v>29998</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>630</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,7 +8392,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8362,13 +8404,13 @@
         <v>2965</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>634</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -8377,13 +8419,13 @@
         <v>4157</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -8392,13 +8434,13 @@
         <v>7122</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,13 +8455,13 @@
         <v>2075</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8428,13 +8470,13 @@
         <v>1033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -8443,13 +8485,13 @@
         <v>3108</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>356</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,13 +8506,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8479,13 +8521,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8494,13 +8536,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,13 +8557,13 @@
         <v>946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>644</v>
+        <v>564</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8530,13 +8572,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8545,13 +8587,13 @@
         <v>946</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8619,13 +8661,13 @@
         <v>464732</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H34" s="7">
         <v>554</v>
@@ -8634,13 +8676,13 @@
         <v>561784</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M34" s="7">
         <v>985</v>
@@ -8649,7 +8691,7 @@
         <v>1026517</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>654</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>655</v>
@@ -8673,10 +8715,10 @@
         <v>657</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>658</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H35" s="7">
         <v>252</v>
@@ -8685,13 +8727,13 @@
         <v>259032</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M35" s="7">
         <v>628</v>
@@ -8700,10 +8742,10 @@
         <v>661569</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>663</v>
+        <v>470</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>664</v>
@@ -8727,7 +8769,7 @@
         <v>666</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>149</v>
+        <v>667</v>
       </c>
       <c r="H36" s="7">
         <v>118</v>
@@ -8736,13 +8778,13 @@
         <v>125510</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M36" s="7">
         <v>403</v>
@@ -8751,13 +8793,13 @@
         <v>424301</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>68</v>
+        <v>671</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8814,13 @@
         <v>247541</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>671</v>
+        <v>98</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>673</v>
       </c>
       <c r="H37" s="7">
         <v>86</v>
@@ -8787,13 +8829,13 @@
         <v>87941</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M37" s="7">
         <v>309</v>
@@ -8802,7 +8844,7 @@
         <v>335482</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>77</v>
+        <v>675</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>676</v>
@@ -8864,7 +8906,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8886,7 +8928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E9474-0AD0-41D3-9CB1-CB39F26A7F86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B993F285-266B-47F5-BB28-DB2F444E3200}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9094,10 +9136,10 @@
         <v>694</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>458</v>
+        <v>695</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9112,13 +9154,13 @@
         <v>17900</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -9127,13 +9169,13 @@
         <v>5874</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -9142,13 +9184,13 @@
         <v>23774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>306</v>
+        <v>703</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9163,13 +9205,13 @@
         <v>3402</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>462</v>
+        <v>706</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>705</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -9178,13 +9220,13 @@
         <v>5208</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -9193,13 +9235,13 @@
         <v>8610</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9267,13 +9309,13 @@
         <v>69995</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -9282,13 +9324,13 @@
         <v>90528</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="M9" s="7">
         <v>135</v>
@@ -9297,13 +9339,13 @@
         <v>160523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9318,13 +9360,13 @@
         <v>52937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -9333,13 +9375,13 @@
         <v>42233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>727</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -9348,13 +9390,13 @@
         <v>95170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9369,13 +9411,13 @@
         <v>28124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>732</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -9384,13 +9426,13 @@
         <v>15926</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>731</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>733</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -9399,13 +9441,13 @@
         <v>44050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>495</v>
+        <v>736</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9420,13 +9462,13 @@
         <v>27346</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -9435,13 +9477,13 @@
         <v>8766</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -9450,13 +9492,13 @@
         <v>36112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9512,7 +9554,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -9524,13 +9566,13 @@
         <v>100164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -9539,13 +9581,13 @@
         <v>99971</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M14" s="7">
         <v>238</v>
@@ -9554,13 +9596,13 @@
         <v>200135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9575,13 +9617,13 @@
         <v>80753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>151</v>
+        <v>756</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="H15" s="7">
         <v>60</v>
@@ -9590,13 +9632,13 @@
         <v>41998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="M15" s="7">
         <v>136</v>
@@ -9605,13 +9647,13 @@
         <v>122750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9626,13 +9668,13 @@
         <v>42482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>671</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -9641,13 +9683,13 @@
         <v>13850</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>766</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>767</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -9656,13 +9698,13 @@
         <v>56332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9677,13 +9719,13 @@
         <v>21726</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -9692,13 +9734,13 @@
         <v>13991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>776</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -9707,13 +9749,13 @@
         <v>35717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>771</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>778</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9769,7 +9811,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9781,13 +9823,13 @@
         <v>160582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>484</v>
+        <v>781</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -9796,13 +9838,13 @@
         <v>140202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -9811,13 +9853,13 @@
         <v>300785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>779</v>
+        <v>573</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9832,13 +9874,13 @@
         <v>75083</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>788</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>789</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>781</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -9847,13 +9889,13 @@
         <v>50100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="M20" s="7">
         <v>159</v>
@@ -9862,13 +9904,13 @@
         <v>125183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9883,13 +9925,13 @@
         <v>56403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>305</v>
+        <v>797</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -9898,10 +9940,10 @@
         <v>28107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>683</v>
@@ -9913,13 +9955,13 @@
         <v>84510</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>677</v>
+        <v>800</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>791</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9934,13 +9976,13 @@
         <v>31829</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>803</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -9949,13 +9991,13 @@
         <v>15787</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>797</v>
+        <v>669</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -9964,13 +10006,13 @@
         <v>47616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10038,13 +10080,13 @@
         <v>61110</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -10053,13 +10095,13 @@
         <v>52043</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="M24" s="7">
         <v>159</v>
@@ -10068,13 +10110,13 @@
         <v>113153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10089,13 +10131,13 @@
         <v>43904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -10104,13 +10146,13 @@
         <v>24634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -10119,13 +10161,13 @@
         <v>68539</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10140,13 +10182,13 @@
         <v>35458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -10155,13 +10197,13 @@
         <v>12685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>624</v>
+        <v>829</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -10170,13 +10212,13 @@
         <v>48143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10191,13 +10233,13 @@
         <v>21640</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>822</v>
+        <v>592</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -10206,13 +10248,13 @@
         <v>7939</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>423</v>
+        <v>766</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>822</v>
+        <v>592</v>
       </c>
       <c r="M27" s="7">
         <v>33</v>
@@ -10221,13 +10263,13 @@
         <v>29579</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>597</v>
+        <v>835</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10283,7 +10325,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -10295,13 +10337,13 @@
         <v>5938</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -10310,13 +10352,13 @@
         <v>5781</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -10325,13 +10367,13 @@
         <v>11719</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10346,13 +10388,13 @@
         <v>1199</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -10361,13 +10403,13 @@
         <v>1239</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -10376,13 +10418,13 @@
         <v>2438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>314</v>
+        <v>850</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10397,13 +10439,13 @@
         <v>693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -10412,13 +10454,13 @@
         <v>1089</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -10427,13 +10469,13 @@
         <v>1782</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10448,13 +10490,13 @@
         <v>570</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>848</v>
+        <v>120</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -10463,13 +10505,13 @@
         <v>1076</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -10478,10 +10520,10 @@
         <v>1646</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>341</v>
@@ -10552,13 +10594,13 @@
         <v>406929</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>263</v>
+        <v>866</v>
       </c>
       <c r="H34" s="7">
         <v>566</v>
@@ -10567,13 +10609,13 @@
         <v>409049</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="M34" s="7">
         <v>890</v>
@@ -10582,13 +10624,13 @@
         <v>815977</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10603,13 +10645,13 @@
         <v>261038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>185</v>
+        <v>872</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="H35" s="7">
         <v>237</v>
@@ -10618,13 +10660,13 @@
         <v>172168</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>447</v>
+        <v>876</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" s="7">
         <v>479</v>
@@ -10636,10 +10678,10 @@
         <v>338</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>377</v>
+        <v>877</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10654,13 +10696,13 @@
         <v>181060</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>666</v>
+        <v>879</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -10669,13 +10711,13 @@
         <v>77531</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M36" s="7">
         <v>254</v>
@@ -10684,13 +10726,13 @@
         <v>258591</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>870</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10705,13 +10747,13 @@
         <v>106512</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>77</v>
+        <v>675</v>
       </c>
       <c r="H37" s="7">
         <v>71</v>
@@ -10720,13 +10762,13 @@
         <v>52767</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -10735,13 +10777,13 @@
         <v>159279</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>878</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10797,7 +10839,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6602-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A43869-89DC-44F8-92A0-27262EDE3EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7854CD0B-9282-435B-900A-6EE5B2CCB90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEDDE0F0-41E4-46BF-9FA0-6AE28A8E1126}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1507D7CB-BB0D-4772-A1D6-FA1E5517617C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="916">
   <si>
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2007 (Tasa respuesta: 43,11%)</t>
   </si>
@@ -77,2647 +77,2716 @@
     <t>33,57%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>72,72%</t>
   </si>
   <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
   <si>
     <t>51,06%</t>
   </si>
   <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
     <t>45,22%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
     <t>42,59%</t>
   </si>
   <si>
-    <t>53,01%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>57,49%</t>
   </si>
   <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>48,95%</t>
   </si>
   <si>
-    <t>53,98%</t>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>15,15%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>13,29%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>7,94%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
 </sst>
 </file>
@@ -3129,7 +3198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAED0D3-61B3-4759-9B78-28175CF88977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628EB52E-72D0-4364-9C14-C2B7A50E4D1D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3510,13 +3579,13 @@
         <v>251327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>257</v>
@@ -3525,13 +3594,13 @@
         <v>271481</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>496</v>
@@ -3540,13 +3609,13 @@
         <v>522808</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3630,13 @@
         <v>132917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3576,13 +3645,13 @@
         <v>45696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -3591,13 +3660,13 @@
         <v>178613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,10 +3681,10 @@
         <v>129709</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>71</v>
@@ -4574,7 +4643,7 @@
         <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -4604,13 +4673,13 @@
         <v>796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -4619,13 +4688,13 @@
         <v>796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4709,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4655,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -4670,13 +4739,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4760,13 @@
         <v>831</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4706,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4721,13 +4790,13 @@
         <v>831</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4864,13 @@
         <v>841776</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>718</v>
@@ -4810,13 +4879,13 @@
         <v>746854</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>1528</v>
@@ -4825,13 +4894,13 @@
         <v>1588630</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4915,13 @@
         <v>408505</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>160</v>
@@ -4861,13 +4930,13 @@
         <v>172372</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>548</v>
@@ -4876,13 +4945,13 @@
         <v>580877</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4966,13 @@
         <v>494022</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>67</v>
@@ -4912,13 +4981,13 @@
         <v>68301</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>536</v>
@@ -4927,13 +4996,13 @@
         <v>562323</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +5017,13 @@
         <v>161384</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -4963,13 +5032,13 @@
         <v>38711</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="M37" s="7">
         <v>195</v>
@@ -4978,13 +5047,13 @@
         <v>200095</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,7 +5095,7 @@
         <v>2807</v>
       </c>
       <c r="N38" s="7">
-        <v>2931924</v>
+        <v>2931925</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -5040,7 +5109,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5062,7 +5131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C44C6FA-4769-4171-BE13-5FE5576918FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7436F4D-4692-4008-9F26-A2081950CA9C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5079,7 +5148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5186,7 +5255,7 @@
         <v>20990</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>257</v>
@@ -5267,10 +5336,10 @@
         <v>43332</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>272</v>
@@ -5354,13 +5423,13 @@
         <v>5211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5369,13 +5438,13 @@
         <v>22705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5512,13 @@
         <v>135350</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H9" s="7">
         <v>161</v>
@@ -5458,13 +5527,13 @@
         <v>170988</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M9" s="7">
         <v>289</v>
@@ -5473,13 +5542,13 @@
         <v>306337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5563,13 @@
         <v>103421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5509,7 +5578,7 @@
         <v>66621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>303</v>
@@ -5700,13 +5769,13 @@
         <v>151659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5715,13 +5784,13 @@
         <v>177666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -5730,13 +5799,13 @@
         <v>329324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5820,13 @@
         <v>117442</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -5766,13 +5835,13 @@
         <v>66808</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -5781,13 +5850,13 @@
         <v>184250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5871,13 @@
         <v>97714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5817,13 +5886,13 @@
         <v>19820</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -5832,13 +5901,13 @@
         <v>117534</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5922,13 @@
         <v>56392</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5868,13 +5937,13 @@
         <v>21524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -5883,13 +5952,13 @@
         <v>77916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +6026,13 @@
         <v>140952</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -5972,13 +6041,13 @@
         <v>146601</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
@@ -5987,13 +6056,13 @@
         <v>287553</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6077,13 @@
         <v>99487</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -6023,13 +6092,13 @@
         <v>52453</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -6038,10 +6107,10 @@
         <v>151940</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>374</v>
@@ -6089,13 +6158,13 @@
         <v>79272</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6179,13 @@
         <v>56123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -6125,13 +6194,13 @@
         <v>16045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6140,13 +6209,13 @@
         <v>72168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6283,13 @@
         <v>65131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -6229,13 +6298,13 @@
         <v>39198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -6244,13 +6313,13 @@
         <v>104329</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6334,13 @@
         <v>38117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -6280,13 +6349,13 @@
         <v>17588</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -6295,13 +6364,13 @@
         <v>55704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6385,13 @@
         <v>34148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6331,13 +6400,13 @@
         <v>4277</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6346,13 +6415,13 @@
         <v>38425</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6436,13 @@
         <v>19956</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>235</v>
+        <v>422</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -6382,13 +6451,13 @@
         <v>8628</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -6397,13 +6466,13 @@
         <v>28584</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,10 +6540,10 @@
         <v>1017</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -6489,7 +6558,7 @@
         <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -6501,10 +6570,10 @@
         <v>3855</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>199</v>
@@ -6522,10 +6591,10 @@
         <v>1000</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>199</v>
@@ -6537,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6552,13 +6621,13 @@
         <v>1000</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,10 +6642,10 @@
         <v>1000</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>199</v>
@@ -6588,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6603,13 +6672,13 @@
         <v>1000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6639,13 +6708,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6654,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6797,13 @@
         <v>515098</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H34" s="7">
         <v>547</v>
@@ -6743,13 +6812,13 @@
         <v>593363</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M34" s="7">
         <v>1020</v>
@@ -6758,13 +6827,13 @@
         <v>1108460</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +6848,13 @@
         <v>382813</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>177</v>
+        <v>449</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H35" s="7">
         <v>207</v>
@@ -6794,13 +6863,13 @@
         <v>223454</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M35" s="7">
         <v>575</v>
@@ -6809,13 +6878,13 @@
         <v>606267</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,13 +6899,13 @@
         <v>310154</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="H36" s="7">
         <v>58</v>
@@ -6845,13 +6914,13 @@
         <v>62876</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>109</v>
+        <v>462</v>
       </c>
       <c r="M36" s="7">
         <v>352</v>
@@ -6860,13 +6929,13 @@
         <v>373029</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6950,13 @@
         <v>206672</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H37" s="7">
         <v>63</v>
@@ -6896,13 +6965,13 @@
         <v>67739</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M37" s="7">
         <v>256</v>
@@ -6911,13 +6980,13 @@
         <v>274410</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,7 +7042,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6995,7 +7064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D5005B-E86C-4361-9569-C965E6828C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227BAF5C-6B38-44D7-8E7C-69E05718E289}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7012,7 +7081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7119,13 +7188,13 @@
         <v>27936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -7134,13 +7203,13 @@
         <v>37481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -7149,13 +7218,13 @@
         <v>65417</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7239,13 @@
         <v>20451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -7185,13 +7254,13 @@
         <v>30717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -7200,13 +7269,13 @@
         <v>51167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7290,13 @@
         <v>13392</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -7236,13 +7305,13 @@
         <v>13533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>498</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -7251,13 +7320,13 @@
         <v>26925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7341,13 @@
         <v>17330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -7287,13 +7356,13 @@
         <v>10124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>507</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -7302,13 +7371,13 @@
         <v>27455</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>500</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7445,13 @@
         <v>93319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>71</v>
+        <v>510</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -7391,13 +7460,13 @@
         <v>153255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M9" s="7">
         <v>251</v>
@@ -7406,13 +7475,13 @@
         <v>246574</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7496,13 @@
         <v>102178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -7442,13 +7511,13 @@
         <v>58937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M10" s="7">
         <v>159</v>
@@ -7457,13 +7526,13 @@
         <v>161115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,10 +7550,10 @@
         <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>528</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -7493,13 +7562,13 @@
         <v>41820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -7508,13 +7577,13 @@
         <v>119948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,13 +7598,13 @@
         <v>69602</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -7544,13 +7613,13 @@
         <v>17798</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -7559,13 +7628,13 @@
         <v>87400</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>532</v>
+        <v>385</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7702,13 @@
         <v>151309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -7648,13 +7717,13 @@
         <v>177626</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
@@ -7663,13 +7732,13 @@
         <v>328935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7753,13 @@
         <v>134023</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -7699,13 +7768,13 @@
         <v>82047</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="M15" s="7">
         <v>210</v>
@@ -7714,13 +7783,13 @@
         <v>216071</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7804,13 @@
         <v>96894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>550</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -7750,13 +7819,13 @@
         <v>29760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -7765,13 +7834,13 @@
         <v>126654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>565</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>556</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7855,13 @@
         <v>74850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -7801,13 +7870,13 @@
         <v>27981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7816,13 +7885,13 @@
         <v>102831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7890,13 +7959,13 @@
         <v>129355</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -7905,13 +7974,13 @@
         <v>129660</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="M19" s="7">
         <v>237</v>
@@ -7920,13 +7989,13 @@
         <v>259015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,13 +8010,13 @@
         <v>89745</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>585</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -7956,13 +8025,13 @@
         <v>61623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -7971,13 +8040,13 @@
         <v>151368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7992,13 +8061,13 @@
         <v>81821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>582</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -8007,13 +8076,13 @@
         <v>26649</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -8022,13 +8091,13 @@
         <v>108470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>588</v>
+        <v>189</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,13 +8112,13 @@
         <v>62663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>593</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -8058,13 +8127,13 @@
         <v>24189</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -8073,13 +8142,13 @@
         <v>86852</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,13 +8216,13 @@
         <v>59848</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -8162,13 +8231,13 @@
         <v>59607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="M24" s="7">
         <v>102</v>
@@ -8177,13 +8246,13 @@
         <v>119455</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8267,13 @@
         <v>54064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -8213,13 +8282,13 @@
         <v>24676</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -8228,13 +8297,13 @@
         <v>78740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8318,13 @@
         <v>28556</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>617</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -8264,13 +8333,13 @@
         <v>13748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -8279,13 +8348,13 @@
         <v>42304</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>625</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8369,13 @@
         <v>22150</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>522</v>
+        <v>634</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -8315,13 +8384,13 @@
         <v>7849</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -8333,10 +8402,10 @@
         <v>323</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>456</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,13 +8473,13 @@
         <v>2965</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>632</v>
+        <v>395</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -8419,10 +8488,10 @@
         <v>4157</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>199</v>
@@ -8434,13 +8503,13 @@
         <v>7122</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8524,13 @@
         <v>2075</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8470,13 +8539,13 @@
         <v>1033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -8485,13 +8554,13 @@
         <v>3108</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>356</v>
+        <v>651</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,13 +8575,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8521,13 +8590,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8536,13 +8605,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8557,13 +8626,13 @@
         <v>946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>564</v>
+        <v>654</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8572,13 +8641,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8587,13 +8656,13 @@
         <v>946</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>647</v>
+        <v>427</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,13 +8730,13 @@
         <v>464732</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H34" s="7">
         <v>554</v>
@@ -8676,13 +8745,13 @@
         <v>561784</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="M34" s="7">
         <v>985</v>
@@ -8691,13 +8760,13 @@
         <v>1026517</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>663</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8712,13 +8781,13 @@
         <v>402537</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="H35" s="7">
         <v>252</v>
@@ -8727,13 +8796,13 @@
         <v>259032</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M35" s="7">
         <v>628</v>
@@ -8742,13 +8811,13 @@
         <v>661569</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>470</v>
+        <v>673</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8763,13 +8832,13 @@
         <v>298791</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="H36" s="7">
         <v>118</v>
@@ -8778,13 +8847,13 @@
         <v>125510</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="M36" s="7">
         <v>403</v>
@@ -8793,13 +8862,13 @@
         <v>424301</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>671</v>
+        <v>104</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>113</v>
+        <v>680</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>666</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8814,13 +8883,13 @@
         <v>247541</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>98</v>
+        <v>681</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>383</v>
+        <v>682</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="H37" s="7">
         <v>86</v>
@@ -8829,13 +8898,13 @@
         <v>87941</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>121</v>
+        <v>685</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="M37" s="7">
         <v>309</v>
@@ -8844,13 +8913,13 @@
         <v>335482</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8906,7 +8975,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8928,7 +8997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B993F285-266B-47F5-BB28-DB2F444E3200}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C44FE3-B44B-4B42-AB93-54CD7A78A410}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8945,7 +9014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9052,13 +9121,13 @@
         <v>9138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -9067,13 +9136,13 @@
         <v>20524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -9082,13 +9151,13 @@
         <v>29662</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,13 +9172,13 @@
         <v>7161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -9118,13 +9187,13 @@
         <v>11965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -9133,13 +9202,13 @@
         <v>19126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>696</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9154,13 +9223,13 @@
         <v>17900</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -9169,13 +9238,13 @@
         <v>5874</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>701</v>
+        <v>205</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -9184,13 +9253,13 @@
         <v>23774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9205,13 +9274,13 @@
         <v>3402</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>718</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -9220,13 +9289,13 @@
         <v>5208</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>710</v>
+        <v>527</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -9235,13 +9304,13 @@
         <v>8610</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>713</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,13 +9378,13 @@
         <v>69995</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -9324,13 +9393,13 @@
         <v>90528</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="M9" s="7">
         <v>135</v>
@@ -9339,13 +9408,13 @@
         <v>160523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,13 +9429,13 @@
         <v>52937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -9375,13 +9444,13 @@
         <v>42233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -9390,13 +9459,13 @@
         <v>95170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,13 +9480,13 @@
         <v>28124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>734</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -9426,13 +9495,13 @@
         <v>15926</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>743</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>428</v>
+        <v>745</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -9441,13 +9510,13 @@
         <v>44050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>588</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9462,13 +9531,13 @@
         <v>27346</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -9477,13 +9546,13 @@
         <v>8766</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>741</v>
+        <v>470</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -9492,13 +9561,13 @@
         <v>36112</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>745</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9566,13 +9635,13 @@
         <v>100164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -9581,13 +9650,13 @@
         <v>99971</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="M14" s="7">
         <v>238</v>
@@ -9596,13 +9665,13 @@
         <v>200135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,13 +9686,13 @@
         <v>80753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="H15" s="7">
         <v>60</v>
@@ -9632,13 +9701,13 @@
         <v>41998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="M15" s="7">
         <v>136</v>
@@ -9647,13 +9716,13 @@
         <v>122750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9668,13 +9737,13 @@
         <v>42482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>671</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>764</v>
+        <v>426</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>765</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -9683,13 +9752,13 @@
         <v>13850</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -9698,13 +9767,13 @@
         <v>56332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>770</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9719,13 +9788,13 @@
         <v>21726</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>772</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -9734,13 +9803,13 @@
         <v>13991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -9749,13 +9818,13 @@
         <v>35717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>783</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9823,13 +9892,13 @@
         <v>160582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -9838,13 +9907,13 @@
         <v>140202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -9853,13 +9922,13 @@
         <v>300785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>573</v>
+        <v>793</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9874,13 +9943,13 @@
         <v>75083</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>797</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -9889,13 +9958,13 @@
         <v>50100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>799</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="M20" s="7">
         <v>159</v>
@@ -9904,13 +9973,13 @@
         <v>125183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9925,13 +9994,13 @@
         <v>56403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -9940,13 +10009,13 @@
         <v>28107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>683</v>
+        <v>809</v>
       </c>
       <c r="M21" s="7">
         <v>82</v>
@@ -9955,13 +10024,13 @@
         <v>84510</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>117</v>
+        <v>811</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,13 +10045,13 @@
         <v>31829</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -9991,13 +10060,13 @@
         <v>15787</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>669</v>
+        <v>818</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -10006,13 +10075,13 @@
         <v>47616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10080,13 +10149,13 @@
         <v>61110</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>810</v>
+        <v>407</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -10095,13 +10164,13 @@
         <v>52043</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="M24" s="7">
         <v>159</v>
@@ -10110,13 +10179,13 @@
         <v>113153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10131,13 +10200,13 @@
         <v>43904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -10146,13 +10215,13 @@
         <v>24634</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>762</v>
+        <v>617</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>833</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -10161,13 +10230,13 @@
         <v>68539</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10251,13 @@
         <v>35458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>827</v>
+        <v>591</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -10197,13 +10266,13 @@
         <v>12685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -10212,13 +10281,13 @@
         <v>48143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>734</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10302,13 @@
         <v>21640</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>592</v>
+        <v>845</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -10248,13 +10317,13 @@
         <v>7939</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>72</v>
+        <v>848</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>592</v>
+        <v>849</v>
       </c>
       <c r="M27" s="7">
         <v>33</v>
@@ -10263,13 +10332,13 @@
         <v>29579</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>837</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10337,13 +10406,13 @@
         <v>5938</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -10352,13 +10421,13 @@
         <v>5781</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -10367,13 +10436,13 @@
         <v>11719</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>752</v>
+        <v>859</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10388,13 +10457,13 @@
         <v>1199</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -10403,13 +10472,13 @@
         <v>1239</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -10418,13 +10487,13 @@
         <v>2438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10439,13 +10508,13 @@
         <v>693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -10454,13 +10523,13 @@
         <v>1089</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -10469,13 +10538,13 @@
         <v>1782</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10490,13 +10559,13 @@
         <v>570</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>120</v>
+        <v>875</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -10505,13 +10574,13 @@
         <v>1076</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -10520,13 +10589,13 @@
         <v>1646</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>341</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10594,13 +10663,13 @@
         <v>406929</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>810</v>
+        <v>883</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="H34" s="7">
         <v>566</v>
@@ -10609,13 +10678,13 @@
         <v>409049</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="M34" s="7">
         <v>890</v>
@@ -10624,13 +10693,13 @@
         <v>815977</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>812</v>
+        <v>889</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10645,13 +10714,13 @@
         <v>261038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="H35" s="7">
         <v>237</v>
@@ -10660,13 +10729,13 @@
         <v>172168</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>299</v>
+        <v>896</v>
       </c>
       <c r="M35" s="7">
         <v>479</v>
@@ -10675,13 +10744,13 @@
         <v>433206</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10696,13 +10765,13 @@
         <v>181060</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -10711,13 +10780,13 @@
         <v>77531</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>883</v>
+        <v>684</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>623</v>
+        <v>903</v>
       </c>
       <c r="M36" s="7">
         <v>254</v>
@@ -10726,13 +10795,13 @@
         <v>258591</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>906</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10747,13 +10816,13 @@
         <v>106512</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>887</v>
+        <v>908</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>675</v>
+        <v>909</v>
       </c>
       <c r="H37" s="7">
         <v>71</v>
@@ -10762,13 +10831,13 @@
         <v>52767</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -10777,13 +10846,13 @@
         <v>159279</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>520</v>
+        <v>915</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10839,7 +10908,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
